--- a/public/file/detail-opex-4.xlsx
+++ b/public/file/detail-opex-4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>month start</t>
+  </si>
+  <si>
+    <t>month duration</t>
   </si>
   <si>
     <t>building 1</t>
@@ -144,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -164,6 +167,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -173,29 +230,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,100 +289,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,19 +320,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +434,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,151 +482,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +511,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,42 +548,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,182 +585,184 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,20 +1090,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="21.734375" customWidth="1"/>
     <col min="3" max="3" width="13.28125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,16 +1128,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1149,21 +1152,24 @@
         <v>500000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1">
         <v>3</v>
       </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1175,21 +1181,24 @@
         <v>300000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1201,93 +1210,105 @@
         <v>250000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>450000</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
         <v>4</v>
       </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>1000000</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
         <v>2</v>
       </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>232323</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
         <v>5</v>
       </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>1000</v>
@@ -1299,21 +1320,24 @@
         <v>1400</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>500</v>
@@ -1325,21 +1349,24 @@
         <v>1000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1351,82 +1378,94 @@
         <v>1200</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3">
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>250000</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
         <v>300000</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>170000</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
